--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(F)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(F).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(F)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(F).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fag
-Fagonia
+          <t>Fag</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fagonia
 Fagonia cretica - Fagonie
 Fagus - fam. Fagacées
 Fagus crenata Bl. (synonyme Fagus sieboldii Endl.) - Hêtre du Japon
@@ -522,18 +539,120 @@
 Fagus japonica - Hêtre bleu du Japon
 Fagus lucida - Hêtre brillant
 Fagus orientalis - Hêtre d'Orient
-Fagus sylvatica - Hêtre commun
-Fai
-Faidherbia
-Faidherbia albida - Gao
-Fal
-Fallopia - fam. Polygonaceae
+Fagus sylvatica - Hêtre commun</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fai</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Faidherbia
+Faidherbia albida - Gao</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fa</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fallopia - fam. Polygonaceae
 Fallopia aubertii - Renouée d'Aubert ou Renouée de Chine
 Fallopia convolvulus - Renouée liseron
 Fallopia dumentorum - Renouée des haies
-Fallopia japonica - Renouée du Japon
-Far
-Fargesia - fam. Poacées
+Fallopia japonica - Renouée du Japon</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fa</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Far</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fargesia - fam. Poacées
 Fargesia crassinoda - Bambou
 Fargesia denudata
 Fargesia dracocephala - Bambou
@@ -544,48 +663,155 @@
 Fargesia rufa
 Fargesia scabrida
 Fargesia spathacea
-Fargesia utilis
-Fat
-Fatsia
+Fargesia utilis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fa</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fatsia
 Fatsia japonica - Aralia du Japon ou Fatsia du Japon
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Fe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fel
-Felicia
-Felicia amelloides - Aster du Cap
-Fer
-Ferula
-Ferula communis - Férule commune
-Fes
-Festuca - fam. Poacées ou Graminées
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fel</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Felicia
+Felicia amelloides - Aster du Cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fe</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fer</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ferula
+Ferula communis - Férule commune</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fe</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Festuca - fam. Poacées ou Graminées
 Festuca arundinacea - Fétuque élevée
 Festuca brachyphylla - Fétuque à feuilles courtes
 Festuca capillata
@@ -605,34 +831,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Fi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fic
-Ficoides - fam. Aizoacées
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fic</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Ficoides - fam. Aizoacées
 Ficus - fam. Moracées
 Ficus benjamina ou Ficus comosa
 Ficus binnendijkii - Ficus à longues feuilles
@@ -641,16 +872,118 @@
 Ficus deltoidea - Ficus à feuilles en delta
 Ficus elastica - Gommier ou Caoutchouc
 Ficus indica - Figuier d'Inde - fam. Cactacée
-Ficus lyrata - Figuier lyre
-Fil
-Filipendula -  fam. Rosacées
+Ficus lyrata - Figuier lyre</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fi</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fil</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Filipendula -  fam. Rosacées
 Filipendula rubra - Filipendule rouge
-Filipendula ulmaria - Reine-des-prés
-Fim
-Fimbristylis
-Fimbristylis autumnalis'
-Fit
-Fittonia
+Filipendula ulmaria - Reine-des-prés</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fi</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fim</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Fimbristylis
+Fimbristylis autumnalis'</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Fi</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fit</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fittonia
 Fittonia verschaffeltii - Fittonia
 Fitzroya
 Fitzroya cupressoides - 	Cyprès de Patagonie ou « Fitzroya faux-cyprès »
@@ -658,115 +991,266 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Fl</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fla
-Flacourtia - fam. Flacourtiacées
-Flacourtia inermis - Prune cythère
-Fle
-Flemingia
-Flo
-Floerkea
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fla</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Flacourtia - fam. Flacourtiacées
+Flacourtia inermis - Prune cythère</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Fl</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fle</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Flemingia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Fl</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Flo</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Floerkea
 Floerkea proserpinacoides
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Fo</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Foe
-Foeniculum - fam. Ombellifères ou Apiacées
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Foe</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Foeniculum - fam. Ombellifères ou Apiacées
 Foeniculum dulce - Fenouil
-Foeniculum vulgare - Fenouil
-For
-Forsythia - fam. Oléacées
+Foeniculum vulgare - Fenouil</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Fo</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>For</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Forsythia - fam. Oléacées
 Forsythia ovata
 Fortunella - fam. Rutacées
 Fortunella japonica - kumquat marumi (rond)
-Fortunella margarita - Kumquat nagami (ovale)
-Fot
-Fothergilla
+Fortunella margarita - Kumquat nagami (ovale)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Fo</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fot</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fothergilla
 Fothergilla major
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Fr</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fra
-Fragaria - fam. Rosaceae
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Fra</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Fragaria - fam. Rosaceae
 Fragaria americana - Fraisier d'Amérique
 Fragaria ×ananassa - Fraisier ananas
 Fragaria chiloensis
@@ -785,13 +1269,81 @@
 Fraxinus ornus - Frêne fleur
 Fraxinus oxycarpa
 Fraxinus pennsylvanica - Frêne rouge ou « Frêne de Pennsylvanie »
-Fraxinus pennsylvanivca austini - Frêne d'Austin
-Fre
-Freesia - fam. Iridacées
+Fraxinus pennsylvanivca austini - Frêne d'Austin</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Fr</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fre</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Freesia - fam. Iridacées
 Freesia hybrida - Freesia
-Freesea refracta
-Fri
-Fritillaria - fam. Liliacées
+Freesea refracta</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Fr</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fritillaria - fam. Liliacées
 Fritillaria conica
 Fritillaria davisii
 Fritillaria drenovskii
@@ -821,41 +1373,80 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Fu</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuc
-Fuchsia - fam. Onagracées ou Œnothéracées
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fuc</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Fuchsia - fam. Onagracées ou Œnothéracées
 Fuchsia gracilis
 Fuchsia gracilis magellanica - Fuchsia gracile de Magellan
 Fuchsia magellanica - Fuchsia de Magellan
 Fuchsia riccartoni - Fuchsia de Ricarton
-Fuchsia x - Fuchsia hybride
-Fum
-Fumana
+Fuchsia x - Fuchsia hybride</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Fu</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fum</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Fumana
 Fumana procumbens - Fumana couché
 Fumaria - fam. Fumariacées
 Fumaria officinalis - Fumeterre officinale
@@ -868,9 +1459,43 @@
 Fumaria occidentalis
 Fumaria densiflora
 Fumaria vaillantii
-Fumaria schleicheri
-Fun
-Funkia - fam. Liliacées
+Fumaria schleicheri</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Fu</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Fun</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Funkia - fam. Liliacées
 Hosta lancifolia - Funkia
 Hosta lancifolia undalata - Funkia
 Hosta plantaginea ou Funkia subcordata - Funkia
